--- a/output/0/tRNA-Leu-AAG-1-1.xlsx
+++ b/output/0/tRNA-Leu-AAG-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
   <si>
     <t>chr5</t>
   </si>
@@ -249,54 +249,6 @@
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>180524850</t>
-  </si>
-  <si>
-    <t>180524873</t>
-  </si>
-  <si>
-    <t>180524870</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AAGATAAAAATAAATAAACC</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>1% (3)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 75%, Moreno-Mateos: 1%</t>
-  </si>
-  <si>
-    <t>180524851</t>
-  </si>
-  <si>
-    <t>180524874</t>
-  </si>
-  <si>
-    <t>180524871</t>
-  </si>
-  <si>
-    <t>AGATAAAAATAAATAAACCA</t>
-  </si>
-  <si>
-    <t>10% (22)</t>
-  </si>
-  <si>
-    <t>83</t>
   </si>
 </sst>
 </file>
@@ -341,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -878,124 +830,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
